--- a/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05375332-A110-4736-922E-E945FBEB1FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40EB729-F34C-4365-B38B-32A59FECAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BDADE6D-C611-4AC9-983C-5DE01B7E26E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBF73623-611C-4012-B750-0862794AB26A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Población según si no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años) en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>32,71%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,68%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>70,63%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>66,32%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>68,78%</t>
   </si>
   <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>33,68%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,103 +251,97 @@
     <t>74,71%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>80,82%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>19,18%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8440D07D-E806-45CA-B731-B5E2B5F2C6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6A0E0-FF65-4258-936E-89A9FE4F65AE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1354,10 +1348,10 @@
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
@@ -1366,13 +1360,13 @@
         <v>98229</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -1381,13 +1375,13 @@
         <v>202227</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,13 +1396,13 @@
         <v>35212</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -1417,13 +1411,13 @@
         <v>27679</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -1432,13 +1426,13 @@
         <v>62891</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1500,13 @@
         <v>272603</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -1524,10 +1518,10 @@
         <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
@@ -1536,13 +1530,13 @@
         <v>508681</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1551,13 @@
         <v>98474</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>122</v>
@@ -1572,13 +1566,13 @@
         <v>79936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
@@ -1587,13 +1581,13 @@
         <v>178409</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40EB729-F34C-4365-B38B-32A59FECAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BD94499-F57E-4A09-A9EE-163DBC3A97B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BBF73623-611C-4012-B750-0862794AB26A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{28F93CD9-9AF0-48E0-A31A-204181237ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años) en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,214 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -756,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED6A0E0-FF65-4258-936E-89A9FE4F65AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B49FB5-9DAF-4579-B82A-69F9A0B262C9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -874,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>16805</v>
+        <v>23780</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -889,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>23606</v>
+        <v>17843</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -907,7 +919,7 @@
         <v>81</v>
       </c>
       <c r="N4" s="7">
-        <v>40411</v>
+        <v>41623</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -925,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>8168</v>
+        <v>6167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -940,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>6248</v>
+        <v>8365</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -958,7 +970,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>14416</v>
+        <v>14531</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -976,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29947</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>52</v>
       </c>
-      <c r="D6" s="7">
-        <v>24973</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>58</v>
-      </c>
       <c r="I6" s="7">
-        <v>29854</v>
+        <v>26208</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1009,7 +1021,7 @@
         <v>110</v>
       </c>
       <c r="N6" s="7">
-        <v>54827</v>
+        <v>56154</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1029,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>71834</v>
+        <v>57523</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1044,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="I7" s="7">
-        <v>57789</v>
+        <v>74581</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1062,7 +1074,7 @@
         <v>206</v>
       </c>
       <c r="N7" s="7">
-        <v>129623</v>
+        <v>132104</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1080,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>21849</v>
+        <v>17051</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1095,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I8" s="7">
-        <v>17340</v>
+        <v>23264</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1113,7 +1125,7 @@
         <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>39188</v>
+        <v>40315</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1131,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>74574</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>147</v>
       </c>
-      <c r="D9" s="7">
-        <v>93683</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>127</v>
-      </c>
       <c r="I9" s="7">
-        <v>75129</v>
+        <v>97845</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1164,7 +1176,7 @@
         <v>274</v>
       </c>
       <c r="N9" s="7">
-        <v>168811</v>
+        <v>172419</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1184,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>79966</v>
+        <v>56431</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1199,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I10" s="7">
-        <v>56454</v>
+        <v>82506</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1217,7 +1229,7 @@
         <v>173</v>
       </c>
       <c r="N10" s="7">
-        <v>136420</v>
+        <v>138936</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1238,7 +1250,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>33245</v>
+        <v>27889</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1253,7 +1265,7 @@
         <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>28669</v>
+        <v>35375</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1268,7 +1280,7 @@
         <v>78</v>
       </c>
       <c r="N11" s="7">
-        <v>61914</v>
+        <v>63264</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1286,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>114</v>
+      </c>
+      <c r="D12" s="7">
+        <v>84320</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>137</v>
       </c>
-      <c r="D12" s="7">
-        <v>113211</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>114</v>
-      </c>
       <c r="I12" s="7">
-        <v>85123</v>
+        <v>117881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1319,7 +1331,7 @@
         <v>251</v>
       </c>
       <c r="N12" s="7">
-        <v>198334</v>
+        <v>202200</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1342,46 +1354,46 @@
         <v>129</v>
       </c>
       <c r="D13" s="7">
-        <v>103998</v>
+        <v>115941</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>129</v>
       </c>
       <c r="I13" s="7">
-        <v>98229</v>
+        <v>106760</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
       </c>
       <c r="N13" s="7">
-        <v>202227</v>
+        <v>222701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7">
+        <v>26761</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>46</v>
       </c>
-      <c r="D14" s="7">
-        <v>35212</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="7">
-        <v>40</v>
-      </c>
       <c r="I14" s="7">
-        <v>27679</v>
+        <v>37456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>62891</v>
+        <v>64217</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,25 +1453,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>169</v>
+      </c>
+      <c r="D15" s="7">
+        <v>142702</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>175</v>
       </c>
-      <c r="D15" s="7">
-        <v>139210</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>169</v>
-      </c>
       <c r="I15" s="7">
-        <v>125908</v>
+        <v>144216</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1474,7 +1486,7 @@
         <v>344</v>
       </c>
       <c r="N15" s="7">
-        <v>265118</v>
+        <v>286918</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1494,49 +1506,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>346</v>
+      </c>
+      <c r="D16" s="7">
+        <v>253675</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>372</v>
       </c>
-      <c r="D16" s="7">
-        <v>272603</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>346</v>
-      </c>
       <c r="I16" s="7">
-        <v>236078</v>
+        <v>281689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>718</v>
       </c>
       <c r="N16" s="7">
-        <v>508681</v>
+        <v>535363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>122</v>
+      </c>
+      <c r="D17" s="7">
+        <v>77868</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>139</v>
       </c>
-      <c r="D17" s="7">
-        <v>98474</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>122</v>
-      </c>
       <c r="I17" s="7">
-        <v>79936</v>
+        <v>104460</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>261</v>
       </c>
       <c r="N17" s="7">
-        <v>178409</v>
+        <v>182328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>468</v>
+      </c>
+      <c r="D18" s="7">
+        <v>331543</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>511</v>
       </c>
-      <c r="D18" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>468</v>
-      </c>
       <c r="I18" s="7">
-        <v>316014</v>
+        <v>386149</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1629,7 +1641,7 @@
         <v>979</v>
       </c>
       <c r="N18" s="7">
-        <v>687090</v>
+        <v>717691</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1643,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
